--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220425_110255.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220425_110255.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>FNC</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
@@ -2965,6 +2968,12 @@
       <c r="F69" t="s">
         <v>211</v>
       </c>
+      <c r="G69" t="s">
+        <v>261</v>
+      </c>
+      <c r="H69" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
@@ -3012,7 +3021,7 @@
         <v>212</v>
       </c>
       <c r="G71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H71" t="s">
         <v>242</v>
@@ -3090,7 +3099,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H74" t="s">
         <v>242</v>
@@ -3115,6 +3124,12 @@
       <c r="F75" t="s">
         <v>83</v>
       </c>
+      <c r="G75" t="s">
+        <v>245</v>
+      </c>
+      <c r="H75" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3136,7 +3151,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
         <v>242</v>
@@ -3344,7 +3359,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H84" t="s">
         <v>242</v>
@@ -3395,6 +3410,12 @@
       <c r="F86" t="s">
         <v>222</v>
       </c>
+      <c r="G86" t="s">
+        <v>261</v>
+      </c>
+      <c r="H86" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
@@ -3520,7 +3541,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H91" t="s">
         <v>242</v>
@@ -3624,7 +3645,7 @@
         <v>228</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H95" t="s">
         <v>242</v>
@@ -3728,7 +3749,7 @@
         <v>229</v>
       </c>
       <c r="G99" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H99" t="s">
         <v>242</v>
@@ -3754,7 +3775,7 @@
         <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H100" t="s">
         <v>242</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220425_110255.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220425_110255.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-25</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220425_110255.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220425_110255.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="267">
   <si>
     <t>사이트</t>
   </si>
@@ -785,9 +785,6 @@
   </si>
   <si>
     <t>빅히트</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>YUE HUA</t>
@@ -2449,7 +2446,7 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H49" t="s">
         <v>242</v>
@@ -2553,7 +2550,7 @@
         <v>199</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H53" t="s">
         <v>242</v>
@@ -2605,7 +2602,7 @@
         <v>201</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
         <v>242</v>
@@ -2709,7 +2706,7 @@
         <v>203</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H59" t="s">
         <v>242</v>
@@ -2839,7 +2836,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H64" t="s">
         <v>242</v>
@@ -2917,7 +2914,7 @@
         <v>209</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H67" t="s">
         <v>242</v>
@@ -2969,7 +2966,7 @@
         <v>211</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H69" t="s">
         <v>242</v>
@@ -3021,7 +3018,7 @@
         <v>212</v>
       </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H71" t="s">
         <v>242</v>
@@ -3073,7 +3070,7 @@
         <v>214</v>
       </c>
       <c r="G73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H73" t="s">
         <v>242</v>
@@ -3099,7 +3096,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H74" t="s">
         <v>242</v>
@@ -3151,7 +3148,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H76" t="s">
         <v>242</v>
@@ -3229,7 +3226,7 @@
         <v>217</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H79" t="s">
         <v>242</v>
@@ -3359,7 +3356,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H84" t="s">
         <v>242</v>
@@ -3385,7 +3382,7 @@
         <v>191</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H85" t="s">
         <v>242</v>
@@ -3411,7 +3408,7 @@
         <v>222</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H86" t="s">
         <v>242</v>
@@ -3541,7 +3538,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
         <v>242</v>
@@ -3645,7 +3642,7 @@
         <v>228</v>
       </c>
       <c r="G95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H95" t="s">
         <v>242</v>
@@ -3749,7 +3746,7 @@
         <v>229</v>
       </c>
       <c r="G99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H99" t="s">
         <v>242</v>
@@ -3775,7 +3772,7 @@
         <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H100" t="s">
         <v>242</v>
